--- a/doc/Procédure de test.xlsx
+++ b/doc/Procédure de test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petitv\Documents\Boite à badges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9FA6E1-202A-41CA-A9F4-CE77ADB4696E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C080AE7-8355-4EBE-B017-6C07A2CBF8B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="10755" xr2:uid="{FB56E5F8-4B54-40C9-A2BA-8175BD51DAC6}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
-  <si>
-    <t>Procédure de test</t>
-  </si>
-  <si>
-    <t>L'état d'initialisation se lance au branchement de l'arduino ?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>OK</t>
   </si>
@@ -45,33 +39,6 @@
     <t>Led Rouge : OFF</t>
   </si>
   <si>
-    <t>Passage du badge valide passe en état de scan ?</t>
-  </si>
-  <si>
-    <t>Passage d'un badge non valide envoie vers un état d'erreur badge ?</t>
-  </si>
-  <si>
-    <t>Retour après 3sec vers l'état d'initialisation ?</t>
-  </si>
-  <si>
-    <t>Durant l'état de scan passage de la carte valide renvoie vers l'état d'initiliasation ?</t>
-  </si>
-  <si>
-    <t>Durant l'état de scan passage d'un badge non valide renvoie vers l'état d'erreur ?</t>
-  </si>
-  <si>
-    <t>Retour après 3sec vers l'état de scan ?</t>
-  </si>
-  <si>
-    <t>Durant le scan enlever la pression du bouton déclenche l'état de compromission ?</t>
-  </si>
-  <si>
-    <t>Lorsque l'état de compromission est déclenché, le passage du scan valide l'enlève ?</t>
-  </si>
-  <si>
-    <t>Lors de l'état de compromission, passer un badge non valide ne change rien ?</t>
-  </si>
-  <si>
     <t>Led orange : BLINK</t>
   </si>
   <si>
@@ -84,16 +51,55 @@
     <t>Led Rouge : ON</t>
   </si>
   <si>
-    <t>Le test à faire</t>
-  </si>
-  <si>
-    <t>Etat du test</t>
-  </si>
-  <si>
-    <t>Etat des sorties du test</t>
-  </si>
-  <si>
-    <t>Sorties attendus</t>
+    <t>Brancher arduino</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Résultat attendu</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Procédure de test 01/03/2022</t>
+  </si>
+  <si>
+    <t>Passer le badge valide</t>
+  </si>
+  <si>
+    <t>INIT</t>
+  </si>
+  <si>
+    <t>Attendre 3sec</t>
+  </si>
+  <si>
+    <t>BADGE_ERROR_INIT</t>
+  </si>
+  <si>
+    <t>SCAN_IN_PROGRESS</t>
+  </si>
+  <si>
+    <t>Passer un badge non valide</t>
+  </si>
+  <si>
+    <t>Passer un badge non valide durant le scan</t>
+  </si>
+  <si>
+    <t>BADGE_ERROR_SCAN</t>
+  </si>
+  <si>
+    <t>Led Rouge :  OFF</t>
+  </si>
+  <si>
+    <t>Enlever la pression du bouton durant le scan</t>
+  </si>
+  <si>
+    <t>COMPROMISED</t>
+  </si>
+  <si>
+    <t>Passer le badge valide durant la compromission</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -210,48 +216,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0387D6-EDDB-4983-8ED4-07E0354FE8A8}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,374 +631,352 @@
     <col min="2" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>2</v>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -956,13 +987,7 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
